--- a/App_Templates/NewPOItem_Template.xlsx
+++ b/App_Templates/NewPOItem_Template.xlsx
@@ -135,9 +135,6 @@
     <t>UOM must match with UOMs defined in Master</t>
   </si>
   <si>
-    <t>If UOM not valid or Blank, system will update Default UOM for Quantity = Nos and Default UOM for weight = Kg</t>
-  </si>
-  <si>
     <t>Create a New Item</t>
   </si>
   <si>
@@ -606,6 +603,21 @@
       </rPr>
       <t xml:space="preserve"> attach any child item to it. And items refering to this Item 
 will become child of Main Item.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valid UOM is required if Quantity or Weight greater than ZERO, UOM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOT is NOT valid.</t>
     </r>
   </si>
 </sst>
@@ -1144,6 +1156,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,18 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,17 +1526,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1538,10 +1550,10 @@
       <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1555,10 +1567,10 @@
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1572,17 +1584,17 @@
       <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
@@ -1638,34 +1650,34 @@
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="44"/>
-      <c r="C10" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
+      <c r="C10" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -1676,7 +1688,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -1687,7 +1699,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -1698,7 +1710,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -1727,7 +1739,7 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -1777,7 +1789,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -1799,7 +1811,7 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="51" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -1810,7 +1822,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -1821,7 +1833,7 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
@@ -1832,7 +1844,7 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
@@ -1852,7 +1864,7 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -1863,7 +1875,7 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52"/>
@@ -1874,7 +1886,7 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
@@ -1885,7 +1897,7 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C31" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="52"/>
@@ -1896,7 +1908,7 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C32" s="51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="52"/>
@@ -1907,7 +1919,7 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" s="51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52"/>
@@ -1918,7 +1930,7 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="52"/>
       <c r="E34" s="52"/>
@@ -1929,7 +1941,7 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
@@ -1939,8 +1951,8 @@
       <c r="I35" s="53"/>
     </row>
     <row r="36" spans="3:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="71" t="s">
-        <v>54</v>
+      <c r="C36" s="60" t="s">
+        <v>53</v>
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="52"/>
@@ -1951,7 +1963,7 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="30"/>
@@ -1962,7 +1974,7 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
@@ -1982,7 +1994,7 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -1993,7 +2005,7 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="52"/>
@@ -2004,7 +2016,7 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
@@ -2015,7 +2027,7 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
@@ -2035,7 +2047,7 @@
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" s="54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -2046,7 +2058,7 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
@@ -2057,7 +2069,7 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="30"/>
@@ -2078,6 +2090,14 @@
   </sheetData>
   <sheetProtection password="CF0D" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" autoFilter="0"/>
   <mergeCells count="24">
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B9:J9"/>
     <mergeCell ref="C44:I44"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C10:I10"/>
@@ -2094,14 +2114,6 @@
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
